--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685517.377378148</v>
+        <v>1670588.710575661</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1861185.768789562</v>
+        <v>1861185.768789563</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.32510981</v>
+        <v>2357862.325109814</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>278.7329666858698</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>47.23025557083721</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2196940949803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>149.1715966121064</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>278.7921013483913</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>126.7632886126195</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>305.080049822744</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.3244323150251</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>155.2114886365809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>83.82466560786655</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>280.449612212471</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>115.1751699441529</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.3542113413185</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>319.5194584381683</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>135.3553342543431</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.47001067514543</v>
+        <v>27.47001067514553</v>
       </c>
       <c r="S11" t="n">
-        <v>164.6180294004006</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1897708139312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071303</v>
+        <v>53.50170169071306</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329303</v>
+        <v>35.42807039329308</v>
       </c>
       <c r="S12" t="n">
         <v>152.3181986878413</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.56442760231828</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>95.0800421016224</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.9476291235963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.30003347744971</v>
+        <v>25.06599159720285</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.1151606089169</v>
       </c>
       <c r="F16" t="n">
-        <v>129.9448458992346</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>207.3637589332672</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>93.51055418461794</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958671</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183517</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>125.2966709805601</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>165.0140383262344</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>130.388033940197</v>
+        <v>219.2901742239484</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958671</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183517</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>225.5650375952924</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.1658665922973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2377,13 +2377,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.5269928896563</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>133.7097938495621</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.09720239620631</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>76.31784138894722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.75208669539955</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>90.23417730192719</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3207,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>124.5531556963743</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>83.53884904317059</v>
       </c>
     </row>
     <row r="38">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>221.2306574774764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.0506771791889</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>161.4562518681535</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>83.07345006396076</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.100961840373</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233622</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353781</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2649.44176215879</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2473.264274472961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2254.629607445023</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2254.629607445023</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1923.566720101453</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1923.566720101453</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1550.100961840373</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.100961840373</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>698.712065060056</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>698.712065060056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2376265802779</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>378.9562430521565</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>372.010742302953</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>358.0873382415439</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960884</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960884</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.665865780691</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1299.526533804879</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,25 +4673,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1527.841322636248</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1158.878805695836</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1158.878805695836</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>773.0905530975922</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>362.1046483079846</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4841419818659</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.44116270037</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.970766405359</v>
+        <v>1218.922303388595</v>
       </c>
       <c r="C11" t="n">
-        <v>1443.008249464947</v>
+        <v>1218.922303388595</v>
       </c>
       <c r="D11" t="n">
-        <v>1326.669693965803</v>
+        <v>860.6566047818446</v>
       </c>
       <c r="E11" t="n">
-        <v>940.8814413675585</v>
+        <v>474.8683521836004</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8814413675585</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="G11" t="n">
-        <v>523.3519349621863</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468647</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399288</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="J11" t="n">
         <v>215.7775870444398</v>
       </c>
       <c r="K11" t="n">
-        <v>564.1738308751537</v>
+        <v>564.1738308751535</v>
       </c>
       <c r="L11" t="n">
         <v>1048.666806192623</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.365138508512</v>
+        <v>1604.365138508511</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.423253260178</v>
+        <v>2154.423253260177</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377774</v>
+        <v>2628.639895377773</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127838</v>
+        <v>2995.698445127836</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699644</v>
+        <v>3194.122369699642</v>
       </c>
       <c r="R11" t="n">
-        <v>3166.374884169194</v>
+        <v>3166.374884169192</v>
       </c>
       <c r="S11" t="n">
-        <v>3000.094046391011</v>
+        <v>3166.374884169192</v>
       </c>
       <c r="T11" t="n">
-        <v>2783.360535039244</v>
+        <v>2949.641372817425</v>
       </c>
       <c r="U11" t="n">
-        <v>2529.633493813051</v>
+        <v>2949.641372817425</v>
       </c>
       <c r="V11" t="n">
-        <v>2198.57060646948</v>
+        <v>2618.578485473854</v>
       </c>
       <c r="W11" t="n">
-        <v>2198.57060646948</v>
+        <v>2265.80983020374</v>
       </c>
       <c r="X11" t="n">
-        <v>2198.57060646948</v>
+        <v>1892.34407194266</v>
       </c>
       <c r="Y11" t="n">
-        <v>2198.57060646948</v>
+        <v>1502.204739966849</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399288</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="J12" t="n">
-        <v>63.88244739399288</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9060257624203</v>
+        <v>355.9060257624201</v>
       </c>
       <c r="L12" t="n">
-        <v>809.9721611135017</v>
+        <v>442.8402192630768</v>
       </c>
       <c r="M12" t="n">
-        <v>1391.825145792531</v>
+        <v>1024.693203942106</v>
       </c>
       <c r="N12" t="n">
-        <v>1601.713577735527</v>
+        <v>1637.653119155454</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.036470465076</v>
+        <v>2131.976011885003</v>
       </c>
       <c r="P12" t="n">
-        <v>2475.771104479179</v>
+        <v>2511.710645899105</v>
       </c>
       <c r="Q12" t="n">
         <v>2676.915881557612</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.8185299385974</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="C13" t="n">
-        <v>245.8823470106905</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="D13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="E13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="F13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="G13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="H13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="I13" t="n">
-        <v>95.76570759835478</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399288</v>
+        <v>63.88244739399284</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555492</v>
+        <v>142.3679338555491</v>
       </c>
       <c r="L13" t="n">
-        <v>298.328769522071</v>
+        <v>298.3287695220708</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041819</v>
+        <v>473.1567265041816</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508087</v>
+        <v>649.2622818508083</v>
       </c>
       <c r="O13" t="n">
-        <v>795.907970209027</v>
+        <v>795.9079702090265</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8680081961053</v>
+        <v>897.8680081961047</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8680081961053</v>
+        <v>897.8680081961047</v>
       </c>
       <c r="R13" t="n">
-        <v>897.8680081961053</v>
+        <v>897.8680081961047</v>
       </c>
       <c r="S13" t="n">
-        <v>897.8680081961053</v>
+        <v>897.8680081961047</v>
       </c>
       <c r="T13" t="n">
-        <v>897.8680081961053</v>
+        <v>897.8680081961047</v>
       </c>
       <c r="U13" t="n">
-        <v>608.7050240028361</v>
+        <v>608.7050240028357</v>
       </c>
       <c r="V13" t="n">
-        <v>608.7050240028361</v>
+        <v>608.7050240028357</v>
       </c>
       <c r="W13" t="n">
-        <v>608.7050240028361</v>
+        <v>512.6645774355403</v>
       </c>
       <c r="X13" t="n">
-        <v>608.7050240028361</v>
+        <v>284.675026537523</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.8185299385974</v>
+        <v>63.88244739399284</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1240.846680926016</v>
+        <v>2040.401133256725</v>
       </c>
       <c r="C14" t="n">
-        <v>871.8841639856048</v>
+        <v>1671.438616316313</v>
       </c>
       <c r="D14" t="n">
-        <v>513.6184653788544</v>
+        <v>1313.172917709563</v>
       </c>
       <c r="E14" t="n">
-        <v>127.8302127806101</v>
+        <v>927.3846651113186</v>
       </c>
       <c r="F14" t="n">
-        <v>127.8302127806101</v>
+        <v>516.3987603217111</v>
       </c>
       <c r="G14" t="n">
-        <v>127.8302127806101</v>
+        <v>99.31097855813852</v>
       </c>
       <c r="H14" t="n">
-        <v>127.8302127806101</v>
+        <v>99.31097855813852</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J14" t="n">
         <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N14" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
         <v>3454.413795556125</v>
@@ -5308,22 +5308,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095564</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840715</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497144</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.05161122703</v>
+        <v>3190.606063557738</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.58585296595</v>
+        <v>2817.140305296658</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990138</v>
+        <v>2427.000973320847</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>141.599614789977</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560949</v>
+        <v>989.4402867502019</v>
       </c>
       <c r="M15" t="n">
         <v>1168.937623104806</v>
       </c>
       <c r="N15" t="n">
-        <v>1842.143315357587</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O15" t="n">
         <v>2001.655628026347</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.2492152268575</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="C16" t="n">
-        <v>205.2492152268575</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="D16" t="n">
-        <v>205.2492152268575</v>
+        <v>345.2404907143459</v>
       </c>
       <c r="E16" t="n">
-        <v>205.2492152268575</v>
+        <v>220.8817426245308</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
         <v>1070.508157165603</v>
@@ -5460,28 +5460,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>943.4485153053656</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>943.4485153053656</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V16" t="n">
-        <v>943.4485153053656</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="W16" t="n">
-        <v>654.0313452684049</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="X16" t="n">
-        <v>426.0417943703876</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.2492152268575</v>
+        <v>495.3571301266816</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1630.986012901834</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C17" t="n">
-        <v>1262.023495961422</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D17" t="n">
-        <v>903.7577973546715</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E17" t="n">
-        <v>903.7577973546715</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176837</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541112</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604017</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449758</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216836</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827858</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095569</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.88315384072</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="V17" t="n">
-        <v>2743.82026649715</v>
+        <v>2900.035304000316</v>
       </c>
       <c r="W17" t="n">
-        <v>2391.051611227035</v>
+        <v>2547.266648730201</v>
       </c>
       <c r="X17" t="n">
-        <v>2017.585852965955</v>
+        <v>2173.800890469121</v>
       </c>
       <c r="Y17" t="n">
-        <v>2017.585852965955</v>
+        <v>2173.800890469121</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835162</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>260.258866646873</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6204065129913</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.165755980096</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N18" t="n">
-        <v>1842.143315357586</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026346</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
         <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
         <v>2635.224952969837</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266206</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266206</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266206</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266206</v>
+        <v>220.8817426245308</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222303</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230485</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422863</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783905</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669892</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>907.2456297917884</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>907.2456297917884</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>618.0934533694681</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V19" t="n">
-        <v>363.4089651635812</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="W19" t="n">
-        <v>73.9917951266206</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="X19" t="n">
-        <v>73.9917951266206</v>
+        <v>495.3571301266816</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266206</v>
+        <v>495.3571301266816</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2084.035518712175</v>
+        <v>1604.096045035599</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.035518712175</v>
+        <v>1235.133528095188</v>
       </c>
       <c r="D20" t="n">
-        <v>1725.769820105425</v>
+        <v>876.8678294884373</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.98156750718</v>
+        <v>491.079576890193</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175729</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216836</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827858</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095569</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U20" t="n">
-        <v>3328.574857095569</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V20" t="n">
-        <v>3196.869772307492</v>
+        <v>3107.069630606727</v>
       </c>
       <c r="W20" t="n">
-        <v>2844.101117037377</v>
+        <v>2754.300975336613</v>
       </c>
       <c r="X20" t="n">
-        <v>2470.635358776297</v>
+        <v>2380.835217075533</v>
       </c>
       <c r="Y20" t="n">
-        <v>2470.635358776297</v>
+        <v>1990.695885099721</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>73.9917951266206</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899774</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560957</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.5065041232</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N21" t="n">
-        <v>1842.143315357586</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026346</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
         <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
         <v>2635.224952969837</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.9048887090137</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C22" t="n">
-        <v>221.9048887090137</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D22" t="n">
-        <v>221.9048887090137</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222303</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230485</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422863</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783905</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669892</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>866.4861918383699</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>866.4861918383699</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>866.4861918383699</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V22" t="n">
-        <v>611.8017036324831</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W22" t="n">
-        <v>611.8017036324831</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>611.8017036324831</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y22" t="n">
-        <v>403.5533535392534</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="23">
@@ -5998,7 +5998,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6025,10 +6025,10 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.7324460062429</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028583</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>932.1883377003201</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.2953582963253</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>809.2953582963253</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>809.2953582963253</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.2953582963253</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,19 +6448,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3966.372044102668</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C31" t="n">
-        <v>3966.372044102668</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D31" t="n">
-        <v>3889.283315426964</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="E31" t="n">
-        <v>3889.283315426964</v>
+        <v>113.1282901425076</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4148.020508932908</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>4148.020508932908</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>4148.020508932908</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>4148.020508932908</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6700,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6785,19 +6785,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4015.784305185132</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>4015.784305185132</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>4015.784305185132</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.638671546822</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048912</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4525.994054365623</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V34" t="n">
-        <v>4525.994054365623</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>4236.576884328662</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>4236.576884328662</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>4015.784305185132</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.046207783209</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>391.9645427683688</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C37" t="n">
-        <v>223.0283598404619</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D37" t="n">
-        <v>223.0283598404619</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>223.0283598404619</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033467</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>619.9540936663861</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>391.9645427683688</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y37" t="n">
-        <v>391.9645427683688</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="38">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028583</v>
@@ -7368,16 +7368,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>762.5369059776569</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>473.1197359406963</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.1301850426789</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.6416868225887</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>544.6416868225887</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>720.4504516500522</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>720.4504516500522</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.4504516500522</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.1954542207687</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C46" t="n">
-        <v>560.1954542207687</v>
+        <v>410.4208539717665</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>260.3042145594308</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>260.3042145594308</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>260.3042145594308</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1104.008581213097</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>814.8799424266556</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>560.1954542207687</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>560.1954542207687</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X46" t="n">
-        <v>560.1954542207687</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.1954542207687</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>28.3391920000829</v>
+        <v>28.33919200008297</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>72.19946194925836</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>173.7747206450145</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>333.4658964092764</v>
       </c>
       <c r="M15" t="n">
-        <v>346.9486182768755</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>441.967925449371</v>
       </c>
       <c r="N18" t="n">
-        <v>240.7280987119456</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264136</v>
       </c>
       <c r="N21" t="n">
-        <v>360.5859288704258</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>96.03744927814705</v>
+        <v>127.6461250100651</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>91.23759968302147</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>230.7151863772036</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>32.78140656352423</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>165.9802687929768</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>43.65987261462533</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>199.7396287231154</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>102.2842294510096</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>239.50787167653</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381684</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543432</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.6180294004006</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,7 +23439,7 @@
         <v>129.1656554187737</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.56442760231833</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542727</v>
+        <v>12.97296450542733</v>
       </c>
       <c r="R13" t="n">
         <v>137.9932954615211</v>
       </c>
       <c r="S13" t="n">
-        <v>208.7844338901267</v>
+        <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
         <v>224.2110473578499</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>191.4429562349686</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.63702422849846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>65.19600741644081</v>
+        <v>93.43004929668771</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>23.31880203765223</v>
       </c>
       <c r="F16" t="n">
-        <v>15.47620212369662</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23676,7 +23676,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
@@ -23709,7 +23709,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>175.3700827302133</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>313.3654915570935</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>41.95015011806774</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23910,10 +23910,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176906</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>40.35184357388422</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>197.3642245299379</v>
+        <v>108.4620842461865</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,10 +24147,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176906</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280456</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.41878675979746</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>14.71982820897156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>33.53702724906577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>127.4874509558885</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>72.29763162926514</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>129.6689613275317</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>56.19978534464198</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>20.86789232655697</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>135.0458043089242</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799475</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>30.90698584635163</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.781303002748444</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.037316595224127</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>138.4741109944285</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737347.6772458779</v>
+        <v>737347.6772458777</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792859.514420184</v>
+        <v>792859.5144201837</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792859.5144201844</v>
+        <v>792859.5144201837</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792859.5144201843</v>
+        <v>792859.5144201838</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>375886.4510185161</v>
+        <v>375886.451018516</v>
       </c>
       <c r="F2" t="n">
         <v>405282.786831988</v>
       </c>
       <c r="G2" t="n">
-        <v>405282.7868319885</v>
+        <v>405282.7868319879</v>
       </c>
       <c r="H2" t="n">
-        <v>405282.7868319884</v>
+        <v>405282.786831988</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261926</v>
+        <v>123022.057526192</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.1638359276</v>
+        <v>122192.1638359278</v>
       </c>
       <c r="G3" t="n">
-        <v>1.049878733283549e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990981</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223513124</v>
+        <v>30961.93223513112</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.65265136601</v>
+        <v>30950.65265136609</v>
       </c>
       <c r="O3" t="n">
-        <v>3.830239165836247e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26432,7 +26432,7 @@
         <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
-        <v>16707.03278084644</v>
+        <v>16707.03278084645</v>
       </c>
       <c r="H4" t="n">
         <v>16707.03278084644</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849832</v>
+        <v>59117.03032849828</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360147</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360147</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106066</v>
+        <v>-336976.853610607</v>
       </c>
       <c r="C6" t="n">
-        <v>252991.0256039375</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
         <v>252991.0256039376</v>
       </c>
       <c r="E6" t="n">
-        <v>176272.9967808867</v>
+        <v>171408.8879933849</v>
       </c>
       <c r="F6" t="n">
-        <v>197212.0469316127</v>
+        <v>193572.7854696714</v>
       </c>
       <c r="G6" t="n">
-        <v>319404.2107675395</v>
+        <v>315764.9493055991</v>
       </c>
       <c r="H6" t="n">
-        <v>319404.2107675404</v>
+        <v>315764.9493055992</v>
       </c>
       <c r="I6" t="n">
-        <v>106669.7165159964</v>
+        <v>105695.1252562734</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225018</v>
+        <v>184804.06566278</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.284855373</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.284855373</v>
       </c>
       <c r="M6" t="n">
-        <v>331239.9438799634</v>
+        <v>330265.352620242</v>
       </c>
       <c r="N6" t="n">
-        <v>331251.2234637286</v>
+        <v>330276.632204007</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150942</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553732</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368683</v>
+        <v>484.6958857368679</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.530592424911</v>
+        <v>798.5305924249105</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827575</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827575</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197817</v>
+        <v>106.9522215197812</v>
       </c>
       <c r="F3" t="n">
-        <v>108.7802146011953</v>
+        <v>108.7802146011954</v>
       </c>
       <c r="G3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160357</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703554</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578453</v>
+        <v>126.3668466578456</v>
       </c>
       <c r="G4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708154</v>
+        <v>290.3162041708167</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703554</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="N4" t="n">
-        <v>126.366846657845</v>
+        <v>126.3668466578454</v>
       </c>
       <c r="O4" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703554</v>
+        <v>124.2433196703549</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578453</v>
+        <v>126.3668466578456</v>
       </c>
       <c r="O4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.24814700397453</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.21426855158887</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>174.7511761522507</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>90.93899933007776</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>125.3743547112085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>108.704120198051</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>150.598340449332</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>141.8849897811706</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.948526173816555</v>
+        <v>1.948526173816553</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759879</v>
+        <v>19.95534367759878</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606279</v>
+        <v>75.12055531606273</v>
       </c>
       <c r="J11" t="n">
-        <v>165.378723344963</v>
+        <v>165.3787233449628</v>
       </c>
       <c r="K11" t="n">
-        <v>247.8598362826177</v>
+        <v>247.8598362826176</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745562</v>
+        <v>307.4920441745559</v>
       </c>
       <c r="M11" t="n">
-        <v>342.1441465181663</v>
+        <v>342.1441465181661</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095227</v>
+        <v>347.6803965095224</v>
       </c>
       <c r="O11" t="n">
-        <v>328.3047393686343</v>
+        <v>328.304739368634</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525381</v>
+        <v>280.2004994525378</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4189058527326</v>
+        <v>210.4189058527324</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3991072660043</v>
+        <v>122.3991072660042</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584478</v>
+        <v>44.40204018584475</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881973</v>
+        <v>8.529673325881966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558820939053243</v>
+        <v>0.1558820939053242</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04255341460383</v>
+        <v>1.042553414603829</v>
       </c>
       <c r="H12" t="n">
-        <v>10.0688711357791</v>
+        <v>10.06887113577909</v>
       </c>
       <c r="I12" t="n">
-        <v>35.89493116070204</v>
+        <v>35.89493116070201</v>
       </c>
       <c r="J12" t="n">
-        <v>98.49843466658379</v>
+        <v>98.49843466658372</v>
       </c>
       <c r="K12" t="n">
-        <v>168.3495134450404</v>
+        <v>168.3495134450403</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472044</v>
+        <v>226.3666964472042</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265932</v>
+        <v>264.159257726593</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482128</v>
+        <v>271.1507672482126</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298858</v>
+        <v>248.0499784298856</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0819761623752</v>
+        <v>199.0819761623751</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536398</v>
+        <v>133.0810288536397</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375935011</v>
+        <v>64.72976375935005</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599657</v>
+        <v>19.36497241599655</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284734</v>
+        <v>4.202221877284731</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446253</v>
+        <v>0.06858904043446247</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648444</v>
+        <v>0.8740417611648437</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174714</v>
+        <v>7.771025840174707</v>
       </c>
       <c r="I13" t="n">
-        <v>26.2848195084846</v>
+        <v>26.28481950848458</v>
       </c>
       <c r="J13" t="n">
-        <v>61.7947525143545</v>
+        <v>61.79475251435444</v>
       </c>
       <c r="K13" t="n">
-        <v>101.5477609789701</v>
+        <v>101.54776097897</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826352</v>
+        <v>129.9461723826351</v>
       </c>
       <c r="M13" t="n">
-        <v>137.0100189796856</v>
+        <v>137.0100189796854</v>
       </c>
       <c r="N13" t="n">
-        <v>133.7522269607985</v>
+        <v>133.7522269607984</v>
       </c>
       <c r="O13" t="n">
-        <v>123.5418300235546</v>
+        <v>123.5418300235545</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957917</v>
+        <v>105.7113780957916</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.18907874626711</v>
+        <v>73.18907874626706</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564836</v>
+        <v>39.30009591564833</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684551</v>
+        <v>15.2321641468455</v>
       </c>
       <c r="T13" t="n">
-        <v>3.734542070431607</v>
+        <v>3.734542070431604</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444612</v>
+        <v>0.04767500515444607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
         <v>120.604421484738</v>
@@ -32083,34 +32083,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937399</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712527</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847382</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512819</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784624</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207007</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441089</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720919</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685359</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937399</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712527</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847382</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512819</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784624</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207007</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441089</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720919</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685359</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903504</v>
+        <v>153.4294339903503</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978088019</v>
+        <v>351.9153978088017</v>
       </c>
       <c r="L11" t="n">
-        <v>489.3868437550194</v>
+        <v>489.3868437550191</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837261</v>
+        <v>561.3114467837258</v>
       </c>
       <c r="N11" t="n">
-        <v>555.6142573249159</v>
+        <v>555.6142573249156</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096929</v>
+        <v>479.0067092096926</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7662118687512</v>
+        <v>370.7662118687509</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381878</v>
+        <v>200.4282066381876</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>294.97331148326</v>
+        <v>294.9733114832599</v>
       </c>
       <c r="L12" t="n">
-        <v>458.6526619707894</v>
+        <v>87.81231666733007</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545747</v>
+        <v>587.7302875545745</v>
       </c>
       <c r="N12" t="n">
-        <v>212.0085171141378</v>
+        <v>619.1514295084328</v>
       </c>
       <c r="O12" t="n">
-        <v>499.3160532621709</v>
+        <v>499.3160532621707</v>
       </c>
       <c r="P12" t="n">
-        <v>383.5703373879821</v>
+        <v>383.570337387982</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.1765425034674</v>
+        <v>166.8739754126327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.27826915308724</v>
+        <v>79.27826915308715</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5361976429513</v>
+        <v>157.5361976429512</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415261</v>
+        <v>176.593895941526</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400271</v>
+        <v>177.884399340027</v>
       </c>
       <c r="O13" t="n">
-        <v>148.1269579375943</v>
+        <v>148.1269579375942</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9899373606852</v>
+        <v>102.9899373606851</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268336</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>472.0816519806837</v>
       </c>
       <c r="M15" t="n">
-        <v>528.2590590391018</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N15" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502625</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391274</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>407.542538404086</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517159</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730419</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513599</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233101</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588828</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312126</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584804</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268367</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748669</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122267</v>
+        <v>623.2783662115971</v>
       </c>
       <c r="N18" t="n">
-        <v>441.3914741186773</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O18" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>428.250271192764</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105732</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493113</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233375</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854533</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353358</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391274</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>407.542538404086</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517159</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730419</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513599</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233101</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588828</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312126</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268367</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748669</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122267</v>
+        <v>229.4160469348675</v>
       </c>
       <c r="N21" t="n">
-        <v>561.2493042771575</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O21" t="n">
-        <v>161.123548150263</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>428.250271192764</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105732</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493113</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233375</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854533</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353358</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>429.2320226761599</v>
+        <v>460.8406984080779</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>401.6619767334877</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>479.9728913332278</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>282.0391115195485</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>499.1748421909896</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>326.0235748557334</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>510.1640057735816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
